--- a/medicine/Enfance/Action_éducative_en_milieu_ouvert/Action_éducative_en_milieu_ouvert.xlsx
+++ b/medicine/Enfance/Action_éducative_en_milieu_ouvert/Action_éducative_en_milieu_ouvert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Action_%C3%A9ducative_en_milieu_ouvert</t>
+          <t>Action_éducative_en_milieu_ouvert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action éducative en milieu ouvert (AEMO) est une des mesures mises en place en France dans le cadre de l'éducation spécialisée.
 Le CNAEMO (Carrefour national de l'Action éducative en milieu ouvert) est la fédération en France représentant les associations et services de milieu ouvert ainsi que les professionnels travaillant dans le champ de la protection de l'enfance.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Action_%C3%A9ducative_en_milieu_ouvert</t>
+          <t>Action_éducative_en_milieu_ouvert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis son entrée en vigueur le 1er juin 2011, la loi dispose de l'« assistance éducative en milieu ouvert », « si décision judiciaire d'action éducative en milieu ouvert ou d'investigation ». Une certaine confusion est ainsi entretenue entre l'action des pouvoirs publics pour faire cesser un trouble à l'ordre public, et l'assistance dont bénéficient les êtres humains de la part du service public[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis son entrée en vigueur le 1er juin 2011, la loi dispose de l'« assistance éducative en milieu ouvert », « si décision judiciaire d'action éducative en milieu ouvert ou d'investigation ». Une certaine confusion est ainsi entretenue entre l'action des pouvoirs publics pour faire cesser un trouble à l'ordre public, et l'assistance dont bénéficient les êtres humains de la part du service public.
 L'AEMO est une mesure judiciaire civile (ordonnée par le Juge des Enfants) au bénéfice d'un ou de plusieurs enfants d'une même famille. Elle consiste en l'intervention à domicile d'un travailleur social pour une durée variable (de 6 mois à 2 ans, renouvelable jusqu'aux 18 ans de l'enfant).
 Une AEMO s'inscrit dans le domaine plus large de l'enfance en danger. Il s'agit pour le travailleur social (éducateur spécialisé, éducateur de jeunes enfants ou assistant social) de supprimer la notion de danger par une action éducative directement dans la famille (dans le cas d'un danger latent), ou bien dans le cadre d'une protection hors famille (dans le cas d'un danger patent).
 Le travailleur social référent de la mesure peut être amené à rencontrer toutes les personnes en contact direct avec l'enfant (instituteurs, médecins, animateurs, assistante sociale etc) afin d'étayer son travail et accéder à une vision globale du contexte de vie de l'enfant. Il doit avant tout en avertir la famille et tenter d'obtenir son accord.
